--- a/scouts/datasets_scouts/rodadas_local_data.xlsx
+++ b/scouts/datasets_scouts/rodadas_local_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1579,8 +1579,12 @@
           <t>CEA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>VAS</t>
@@ -1611,8 +1615,12 @@
           <t>BOT</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>SAO</t>
@@ -1643,8 +1651,12 @@
           <t>MIR</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1675,8 +1687,12 @@
           <t>SPT</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>RBB</t>
@@ -1707,8 +1723,12 @@
           <t>COR</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>FLU</t>
@@ -1739,8 +1759,12 @@
           <t>INT</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>PAL</t>
@@ -1771,8 +1795,12 @@
           <t>FLA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>JUV</t>
@@ -1803,8 +1831,12 @@
           <t>SAN</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>CAM</t>
@@ -1835,8 +1867,12 @@
           <t>VIT</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>FOR</t>
@@ -1867,11 +1903,335 @@
           <t>CRU</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>BAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Neo Química Arena</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Maracanã</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>VAS</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Alfredo Jaconi</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>MIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Morumbis</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SAO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mineirão</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Maracanã</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Castelão (CE)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Nabi Abi Chedid</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>RBB</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>CRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>CEA</t>
         </is>
       </c>
     </row>

--- a/scouts/datasets_scouts/rodadas_local_data.xlsx
+++ b/scouts/datasets_scouts/rodadas_local_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,8 +1939,12 @@
           <t>COR</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>SPT</t>
@@ -1971,8 +1975,12 @@
           <t>VAS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>FLA</t>
@@ -2003,8 +2011,12 @@
           <t>GRE</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>INT</t>
@@ -2035,8 +2047,12 @@
           <t>JUV</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>MIR</t>
@@ -2067,8 +2083,12 @@
           <t>SAO</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>SAN</t>
@@ -2099,8 +2119,12 @@
           <t>CAM</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>BOT</t>
@@ -2131,8 +2155,12 @@
           <t>FLU</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>VIT</t>
@@ -2163,8 +2191,12 @@
           <t>FOR</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>PAL</t>
@@ -2195,8 +2227,12 @@
           <t>RBB</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
           <t>CRU</t>
@@ -2227,11 +2263,335 @@
           <t>BAH</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>CEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Beira-Rio</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Maião</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MIR</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Castelão (CE)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CEA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>SAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Ilha do Retiro</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SPT</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Nilton Santos (Engenhão)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Maracanã</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Allianz Parque</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Parque do Sabiá</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CRU</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>VAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Barradão</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Vila Belmiro</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>RBB</t>
         </is>
       </c>
     </row>

--- a/scouts/datasets_scouts/rodadas_local_data.xlsx
+++ b/scouts/datasets_scouts/rodadas_local_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2299,8 +2299,12 @@
           <t>INT</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>JUV</t>
@@ -2331,8 +2335,12 @@
           <t>MIR</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>CAM</t>
@@ -2363,8 +2371,12 @@
           <t>CEA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
           <t>SAO</t>
@@ -2395,8 +2407,12 @@
           <t>SPT</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
           <t>FOR</t>
@@ -2427,8 +2443,12 @@
           <t>BOT</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>FLU</t>
@@ -2459,8 +2479,12 @@
           <t>FLA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>COR</t>
@@ -2491,8 +2515,12 @@
           <t>PAL</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>BAH</t>
@@ -2523,8 +2551,12 @@
           <t>CRU</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>VAS</t>
@@ -2555,8 +2587,12 @@
           <t>VIT</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2587,11 +2623,335 @@
           <t>SAN</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>RBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Morumbis</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SAO</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Maracanã</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>SPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Neo Química Arena</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Presidente Vargas (CE)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>CEA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Mané Garrincha</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>VAS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Mineirão</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>CRU</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Cícero de Souza Marques</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>RBB</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>MIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Alfredo Jaconi</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>CAM</t>
         </is>
       </c>
     </row>

--- a/scouts/datasets_scouts/rodadas_local_data.xlsx
+++ b/scouts/datasets_scouts/rodadas_local_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2659,8 +2659,12 @@
           <t>SAO</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>FOR</t>
@@ -2691,8 +2695,12 @@
           <t>FLU</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>SPT</t>
@@ -2723,8 +2731,12 @@
           <t>COR</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>INT</t>
@@ -2755,8 +2767,12 @@
           <t>CEA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>VIT</t>
@@ -2787,8 +2803,12 @@
           <t>BAH</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>BOT</t>
@@ -2819,8 +2839,12 @@
           <t>VAS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>PAL</t>
@@ -2851,8 +2875,12 @@
           <t>GRE</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>SAN</t>
@@ -2883,8 +2911,12 @@
           <t>CRU</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>FLA</t>
@@ -2915,8 +2947,12 @@
           <t>RBB</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>MIR</t>
@@ -2947,11 +2983,695 @@
           <t>JUV</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
           <t>CAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>8</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Presidente Vargas (CE)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>8</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Maião</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MIR</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>8</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>RBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>8</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Barradão</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>VAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>8</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Maracanã</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>8</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ilha do Retiro</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SPT</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>CRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>8</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Arena Barueri</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>8</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Arena MRV</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Nilton Santos (Engenhão)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>8</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Allianz Parque</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>CEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Castelão (CE)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>CEA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>9</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>São Januário</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>VAS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>9</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Morumbis</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SAO</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>9</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Neo Química Arena</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>9</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Alfredo Jaconi</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>9</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Maracanã</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cícero de Souza Marques</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>RBB</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>9</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Mineirão</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>CRU</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>9</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Beira-Rio</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>MIR</t>
         </is>
       </c>
     </row>

--- a/scouts/datasets_scouts/rodadas_local_data.xlsx
+++ b/scouts/datasets_scouts/rodadas_local_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3379,8 +3379,12 @@
           <t>CEA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t>SPT</t>
@@ -3411,8 +3415,12 @@
           <t>VAS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
           <t>FOR</t>
@@ -3443,8 +3451,12 @@
           <t>SAO</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3475,8 +3487,12 @@
           <t>COR</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t>SAN</t>
@@ -3507,8 +3523,12 @@
           <t>BAH</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>VIT</t>
@@ -3539,8 +3559,12 @@
           <t>JUV</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>FLU</t>
@@ -3571,8 +3595,12 @@
           <t>FLA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t>BOT</t>
@@ -3603,8 +3631,12 @@
           <t>RBB</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
           <t>PAL</t>
@@ -3635,8 +3667,12 @@
           <t>CRU</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>CAM</t>
@@ -3667,11 +3703,335 @@
           <t>INT</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>MIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Maracanã</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>VAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Morumbis</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>SAO</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>MIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Arena MRV</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Allianz Parque</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Ilha do Retiro</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>SPT</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Barradão</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Castelão (CE)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>CRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cícero de Souza Marques</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>RBB</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Nilton Santos (Engenhão)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>CEA</t>
         </is>
       </c>
     </row>

--- a/scouts/datasets_scouts/rodadas_local_data.xlsx
+++ b/scouts/datasets_scouts/rodadas_local_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3739,8 +3739,12 @@
           <t>FLU</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>VAS</t>
@@ -3771,8 +3775,12 @@
           <t>SAO</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>MIR</t>
@@ -3803,8 +3811,12 @@
           <t>CAM</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
           <t>COR</t>
@@ -3835,8 +3847,12 @@
           <t>GRE</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
           <t>BAH</t>
@@ -3867,8 +3883,12 @@
           <t>PAL</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
           <t>FLA</t>
@@ -3899,8 +3919,12 @@
           <t>SPT</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t>INT</t>
@@ -3931,8 +3955,12 @@
           <t>VIT</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
           <t>SAN</t>
@@ -3963,8 +3991,12 @@
           <t>FOR</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>CRU</t>
@@ -3995,8 +4027,12 @@
           <t>RBB</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>JUV</t>
@@ -4027,11 +4063,999 @@
           <t>BOT</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>3</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
           <t>CEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>11</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>SAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>11</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>São Januário</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>VAS</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>RBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>11</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Maião</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>MIR</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>SPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>11</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Vila Belmiro</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>11</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Alfredo Jaconi</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>11</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Maracanã</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>11</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Neo Química Arena</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>11</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Castelão (CE)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>CEA</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>11</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Mineirão</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>CRU</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>11</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Beira-Rio</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>12</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>CEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>12</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>MIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>12</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>12</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SPT</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>12</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Cícero de Souza Marques</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>RBB</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>12</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Barradão</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>CRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>12</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Castelão (CE)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>12</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>12</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Morumbis</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SAO</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>VAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>12</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Arena MRV</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>13</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>SAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>13</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>VAS</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>13</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>RBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>13</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>13</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>MIR</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>13</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>CRU</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>13</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>13</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>13</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>CEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>13</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>SPT</t>
         </is>
       </c>
     </row>
